--- a/biology/Botanique/Aerangis/Aerangis.xlsx
+++ b/biology/Botanique/Aerangis/Aerangis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Aerangis est un genre d'orchidée dont on connaît une cinquantaine d'espèces que l'on rencontre dans les forêts pluviales d'Afrique, des Comores et de Madagascar. Elles sont, la plupart du temps, épiphytes mais certaines s'installent aussi sur des rochers. Elles sont proches des Vanda. Leurs fleurs petites, généralement blanches sont agréablement parfumées la nuit.
 Quelques espèces originaires de Madagascar
@@ -546,7 +558,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture de ces plantes est facile pourvu que l'on respecte les quelques points qui suivent.
 Les températures devraient être comprises entre 16 et 18 °C la nuit et 18 à 25 °C le jour, avec un taux d'humidité oscillant entre 60 et 80 % toute l'année. Les arrosages doivent être abondants (de l'ordre d'une à deux fois par semaine), avec une eau non calcaire. Diminuer un peu l'arrosage quand les températures sont plus fraîches.
@@ -581,7 +595,9 @@
           <t>Liste des hybrides horticoles enregistrés par la Royal Horticultural Society</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hybrides interspécifiques
 Aerangis Artikot - A.kotschyana × A.articulata - R. van Rooyen (G. van Ede), 2003.
